--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44240,6 +44240,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44277,6 +44277,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44312,6 +44312,43 @@
         <v>1900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44349,6 +44349,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44386,6 +44386,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44423,6 +44423,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44460,6 +44460,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44497,6 +44497,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44534,6 +44534,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44569,6 +44569,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44604,6 +44604,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>17100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44639,6 +44639,41 @@
         <v>17100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>23000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44674,6 +44674,78 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44746,6 +44746,80 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44820,6 +44820,43 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44857,6 +44857,43 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44894,6 +44894,43 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44931,6 +44931,41 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>10700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44966,6 +44966,76 @@
         <v>10700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>124700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45036,6 +45036,41 @@
         <v>124700</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>76400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45071,6 +45071,41 @@
         <v>76400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>30500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1692"/>
+  <dimension ref="A1:I1693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60926,6 +60926,41 @@
         <v>30500</v>
       </c>
     </row>
+    <row r="1693">
+      <c r="A1693" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1693" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1693" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>18100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1693"/>
+  <dimension ref="A1:I1694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60961,6 +60961,41 @@
         <v>18100</v>
       </c>
     </row>
+    <row r="1694">
+      <c r="A1694" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1694" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1694" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>17100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1694"/>
+  <dimension ref="A1:I1695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60996,6 +60996,41 @@
         <v>17100</v>
       </c>
     </row>
+    <row r="1695">
+      <c r="A1695" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1695" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1695"/>
+  <dimension ref="A1:I1696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61031,6 +61031,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1696">
+      <c r="A1696" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1696" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1696" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>202400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1696"/>
+  <dimension ref="A1:I1697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61066,6 +61066,43 @@
         <v>202400</v>
       </c>
     </row>
+    <row r="1697">
+      <c r="A1697" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1697" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1697" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1697" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1697"/>
+  <dimension ref="A1:I1698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61103,6 +61103,41 @@
         </is>
       </c>
     </row>
+    <row r="1698">
+      <c r="A1698" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1698" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1698" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1698"/>
+  <dimension ref="A1:I1699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61138,6 +61138,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1699">
+      <c r="A1699" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1699" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1699" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1699"/>
+  <dimension ref="A1:I1700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61173,6 +61173,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1700">
+      <c r="A1700" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1700" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1700" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1700" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1700"/>
+  <dimension ref="A1:I1701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61210,6 +61210,41 @@
         </is>
       </c>
     </row>
+    <row r="1701">
+      <c r="A1701" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1701" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1701" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1701" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1701"/>
+  <dimension ref="A1:I1702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61245,6 +61245,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1702">
+      <c r="A1702" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1702" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1702" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>9900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1702"/>
+  <dimension ref="A1:I1703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61280,6 +61280,41 @@
         <v>9900</v>
       </c>
     </row>
+    <row r="1703">
+      <c r="A1703" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1703" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1703" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1703"/>
+  <dimension ref="A1:I1704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61315,6 +61315,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1704">
+      <c r="A1704" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1704" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1704" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1704" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1704"/>
+  <dimension ref="A1:I1705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61350,6 +61350,43 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1705">
+      <c r="A1705" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1705" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1705" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1705" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1705" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1705"/>
+  <dimension ref="A1:I1706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61387,6 +61387,43 @@
         </is>
       </c>
     </row>
+    <row r="1706">
+      <c r="A1706" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1706" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1706" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1706" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1706" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5022.xlsx
+++ b/data/5022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1706"/>
+  <dimension ref="A1:I1707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61424,6 +61424,41 @@
         </is>
       </c>
     </row>
+    <row r="1707">
+      <c r="A1707" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1707" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="D1707" t="inlineStr">
+        <is>
+          <t>PAOS</t>
+        </is>
+      </c>
+      <c r="E1707" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
